--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed3/result_data_KNN.xlsx
@@ -559,12 +559,12 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.22</v>
+        <v>16.609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.188</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.612</v>
+        <v>-21.846</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.696</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.361</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.095</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.126</v>
+        <v>16.386</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.234</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.096</v>
+        <v>16.252</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.75</v>
+        <v>16.225</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.004</v>
+        <v>-20.217</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48</v>
+        <v>16.249</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.166</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.484</v>
+        <v>-21.604</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.58</v>
+        <v>17.333</v>
       </c>
     </row>
     <row r="69">
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.522</v>
+        <v>-20.505</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.864</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.888</v>
+        <v>-21.82</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.152</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.374</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.30399999999999</v>
+        <v>16.208</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.82</v>
+        <v>16.325</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.15</v>
+        <v>16.293</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.652</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.64</v>
       </c>
     </row>
   </sheetData>
